--- a/config/excel/Collection.xlsx
+++ b/config/excel/Collection.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>合成所需碎片数量</t>
+  </si>
+  <si>
+    <t>重复获得返还碎片数</t>
   </si>
   <si>
     <t>0星属性id</t>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>fragmentCompose</t>
+  </si>
+  <si>
+    <t>fragmentTransform</t>
   </si>
   <si>
     <t>starAttIds</t>
@@ -171,12 +177,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,20 +199,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -214,34 +233,12 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="SimSun"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,10 +252,49 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,10 +307,62 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -285,93 +373,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,49 +403,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor theme="4" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,19 +511,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,139 +607,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,6 +692,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -692,19 +716,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,24 +753,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -781,6 +774,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -792,6 +796,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,178 +832,170 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -992,79 +1003,69 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1128,32 +1129,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="C1:Y7" totalsRowShown="0">
-  <autoFilter ref="C1:Y7"/>
-  <tableColumns count="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="C1:Z7" totalsRowShown="0">
+  <autoFilter ref="C1:Z7"/>
+  <tableColumns count="24">
     <tableColumn id="1" name="收集品id"/>
     <tableColumn id="2" name="收集品名字"/>
     <tableColumn id="3" name="图标"/>
     <tableColumn id="4" name="品质"/>
     <tableColumn id="5" name="激活任务id"/>
     <tableColumn id="6" name="合成所需碎片数量"/>
-    <tableColumn id="7" name="0星属性id"/>
-    <tableColumn id="8" name="1星属性id"/>
-    <tableColumn id="9" name="2星属性id"/>
-    <tableColumn id="10" name="3星属性id"/>
-    <tableColumn id="11" name="4星属性id"/>
-    <tableColumn id="12" name="5星属性id"/>
-    <tableColumn id="13" name="6星属性id"/>
-    <tableColumn id="14" name="星级对应的属性id"/>
-    <tableColumn id="15" name="觉醒属性id"/>
-    <tableColumn id="16" name="放置属性id"/>
-    <tableColumn id="17" name="升1星消耗碎片"/>
-    <tableColumn id="18" name="升2星消耗碎片"/>
-    <tableColumn id="19" name="升3星消耗碎片"/>
-    <tableColumn id="20" name="升4星消耗碎片"/>
-    <tableColumn id="21" name="升5星消耗碎片"/>
-    <tableColumn id="22" name="升6星消耗碎片"/>
-    <tableColumn id="23" name="升星消耗碎片数量"/>
+    <tableColumn id="7" name="重复获得返还碎片数"/>
+    <tableColumn id="8" name="0星属性id"/>
+    <tableColumn id="9" name="1星属性id"/>
+    <tableColumn id="10" name="2星属性id"/>
+    <tableColumn id="11" name="3星属性id"/>
+    <tableColumn id="12" name="4星属性id"/>
+    <tableColumn id="13" name="5星属性id"/>
+    <tableColumn id="14" name="6星属性id"/>
+    <tableColumn id="15" name="星级对应的属性id"/>
+    <tableColumn id="16" name="觉醒属性id"/>
+    <tableColumn id="17" name="放置属性id"/>
+    <tableColumn id="18" name="升1星消耗碎片"/>
+    <tableColumn id="19" name="升2星消耗碎片"/>
+    <tableColumn id="20" name="升3星消耗碎片"/>
+    <tableColumn id="21" name="升4星消耗碎片"/>
+    <tableColumn id="22" name="升5星消耗碎片"/>
+    <tableColumn id="23" name="升6星消耗碎片"/>
+    <tableColumn id="24" name="升星消耗碎片数量"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1417,12 +1419,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="X23" sqref="X23"/>
+      <selection pane="bottomLeft" activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="6"/>
@@ -1434,21 +1436,22 @@
     <col min="5" max="6" width="10.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.2857142857143" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.4285714285714" style="1" customWidth="1"/>
-    <col min="9" max="10" width="10.1428571428571" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.2857142857143" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.2857142857143" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.1428571428571" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.2142857142857" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.6428571428571" style="1" customWidth="1"/>
-    <col min="19" max="24" width="15.0714285714286" style="1" customWidth="1"/>
-    <col min="25" max="25" width="18.4285714285714" style="1" customWidth="1"/>
-    <col min="26" max="16383" width="9" style="1"/>
+    <col min="9" max="9" width="20.7142857142857" style="1" customWidth="1"/>
+    <col min="10" max="11" width="10.1428571428571" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.2857142857143" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.2857142857143" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.1428571428571" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.2142857142857" style="1" customWidth="1"/>
+    <col min="18" max="18" width="15.375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.6428571428571" style="1" customWidth="1"/>
+    <col min="20" max="25" width="15.0714285714286" style="1" customWidth="1"/>
+    <col min="26" max="26" width="21.0714285714286" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" ht="14.4" spans="1:26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1476,141 +1479,148 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="U1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="V1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="W1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="X1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="Y1" s="16" t="s">
         <v>24</v>
       </c>
+      <c r="Z1" s="24" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" ht="50" spans="1:25">
+    <row r="2" ht="58" spans="1:26">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="7"/>
+      <c r="F2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="26" t="s">
+      <c r="P2" s="7"/>
+      <c r="Q2" s="17" t="s">
         <v>28</v>
       </c>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="17" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="2:25">
+    <row r="3" ht="14.4" spans="2:26">
       <c r="B3" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="11" t="s">
         <v>32</v>
       </c>
+      <c r="E3" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="F3" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="I3" s="9" t="s">
         <v>37</v>
       </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="R3" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="27" t="s">
         <v>39</v>
       </c>
+      <c r="S3" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="20" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="4" spans="2:25">
+    <row r="4" ht="14.4" spans="2:26">
       <c r="B4" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>2</v>
@@ -1618,7 +1628,7 @@
       <c r="D4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="9" t="s">
@@ -1633,145 +1643,152 @@
       <c r="I4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="20" t="s">
         <v>16</v>
       </c>
       <c r="R4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="22" t="s">
+      <c r="S4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="22" t="s">
+      <c r="T4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="22" t="s">
+      <c r="U4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="V4" s="22" t="s">
+      <c r="V4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="W4" s="22" t="s">
+      <c r="W4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="X4" s="22" t="s">
+      <c r="X4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Y4" s="27" t="s">
+      <c r="Y4" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="Z4" s="20" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="5" spans="2:25">
+    <row r="5" ht="14.4" spans="2:26">
       <c r="B5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="C5" s="10"/>
       <c r="D5" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="27"/>
+        <v>44</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="20"/>
     </row>
-    <row r="6" spans="2:25">
+    <row r="6" ht="14.4" spans="2:26">
       <c r="B6" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="Q6" s="21" t="s">
-        <v>44</v>
+      <c r="I6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="R6" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="27" t="s">
         <v>46</v>
       </c>
+      <c r="S6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="20" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="7" ht="16.8" spans="2:25">
-      <c r="B7" s="8"/>
+    <row r="7" ht="14.4" spans="2:26">
+      <c r="B7" s="11"/>
       <c r="C7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>48</v>
+      <c r="D7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="F7" s="7">
         <v>0</v>
@@ -1783,56 +1800,59 @@
         <v>20</v>
       </c>
       <c r="I7" s="7">
+        <v>20</v>
+      </c>
+      <c r="J7" s="7">
         <v>1</v>
       </c>
-      <c r="J7" s="7">
+      <c r="K7" s="7">
         <v>2</v>
       </c>
-      <c r="K7" s="7">
+      <c r="L7" s="7">
         <v>3</v>
       </c>
-      <c r="L7" s="7">
+      <c r="M7" s="7">
         <v>4</v>
       </c>
-      <c r="M7" s="7">
+      <c r="N7" s="7">
         <v>5</v>
       </c>
-      <c r="N7" s="7">
+      <c r="O7" s="7">
         <v>6</v>
       </c>
-      <c r="O7" s="7">
+      <c r="P7" s="7">
         <v>-1</v>
       </c>
-      <c r="P7" s="17" t="str">
-        <f>I7&amp;","&amp;J7&amp;","&amp;K7&amp;","&amp;L7&amp;","&amp;M7&amp;","&amp;N7&amp;","&amp;O7</f>
+      <c r="Q7" s="23" t="str">
+        <f>J7&amp;","&amp;K7&amp;","&amp;L7&amp;","&amp;M7&amp;","&amp;N7&amp;","&amp;O7&amp;","&amp;P7</f>
         <v>1,2,3,4,5,6,-1</v>
       </c>
-      <c r="Q7" s="19">
+      <c r="R7" s="18">
         <v>1</v>
       </c>
-      <c r="R7" s="19">
+      <c r="S7" s="18">
         <v>1</v>
       </c>
-      <c r="S7" s="24">
+      <c r="T7" s="12">
         <v>10</v>
       </c>
-      <c r="T7" s="24">
+      <c r="U7" s="12">
         <v>20</v>
       </c>
-      <c r="U7" s="24">
+      <c r="V7" s="12">
         <v>30</v>
       </c>
-      <c r="V7" s="24">
+      <c r="W7" s="12">
         <v>40</v>
       </c>
-      <c r="W7" s="24">
+      <c r="X7" s="12">
         <v>50</v>
       </c>
-      <c r="X7" s="24">
+      <c r="Y7" s="12">
         <v>60</v>
       </c>
-      <c r="Y7" s="28" t="str">
-        <f>S7&amp;","&amp;T7&amp;","&amp;U7&amp;","&amp;V7&amp;","&amp;W7&amp;","&amp;X7</f>
+      <c r="Z7" s="23" t="str">
+        <f>T7&amp;","&amp;U7&amp;","&amp;V7&amp;","&amp;W7&amp;","&amp;X7&amp;","&amp;Y7</f>
         <v>10,20,30,40,50,60</v>
       </c>
     </row>

--- a/config/excel/Collection.xlsx
+++ b/config/excel/Collection.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>觉醒属性id</t>
+  </si>
+  <si>
+    <t>觉醒消耗id</t>
   </si>
   <si>
     <t>放置属性id</t>
@@ -137,6 +140,9 @@
   </si>
   <si>
     <t>wakeupAttId</t>
+  </si>
+  <si>
+    <t>wakeupCostId</t>
   </si>
   <si>
     <t>exhibitionAttId</t>
@@ -177,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -212,6 +218,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
@@ -219,35 +243,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -260,7 +267,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,19 +288,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -306,83 +326,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,31 +409,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor theme="4" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,19 +577,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,31 +601,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,121 +619,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,19 +698,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -735,9 +728,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color theme="1"/>
       </right>
@@ -750,67 +741,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.399975585192419"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,8 +774,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,155 +788,220 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1024,47 +1030,32 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1129,9 +1120,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="C1:Z7" totalsRowShown="0">
-  <autoFilter ref="C1:Z7"/>
-  <tableColumns count="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="C1:AA7" totalsRowShown="0">
+  <autoFilter ref="C1:AA7"/>
+  <tableColumns count="25">
     <tableColumn id="1" name="收集品id"/>
     <tableColumn id="2" name="收集品名字"/>
     <tableColumn id="3" name="图标"/>
@@ -1148,14 +1139,15 @@
     <tableColumn id="14" name="6星属性id"/>
     <tableColumn id="15" name="星级对应的属性id"/>
     <tableColumn id="16" name="觉醒属性id"/>
-    <tableColumn id="17" name="放置属性id"/>
-    <tableColumn id="18" name="升1星消耗碎片"/>
-    <tableColumn id="19" name="升2星消耗碎片"/>
-    <tableColumn id="20" name="升3星消耗碎片"/>
-    <tableColumn id="21" name="升4星消耗碎片"/>
-    <tableColumn id="22" name="升5星消耗碎片"/>
-    <tableColumn id="23" name="升6星消耗碎片"/>
-    <tableColumn id="24" name="升星消耗碎片数量"/>
+    <tableColumn id="17" name="觉醒消耗id"/>
+    <tableColumn id="18" name="放置属性id"/>
+    <tableColumn id="19" name="升1星消耗碎片"/>
+    <tableColumn id="20" name="升2星消耗碎片"/>
+    <tableColumn id="21" name="升3星消耗碎片"/>
+    <tableColumn id="22" name="升4星消耗碎片"/>
+    <tableColumn id="23" name="升5星消耗碎片"/>
+    <tableColumn id="24" name="升6星消耗碎片"/>
+    <tableColumn id="25" name="升星消耗碎片数量"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1419,12 +1411,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Z14" sqref="Z14"/>
+      <selection pane="bottomLeft" activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="6"/>
@@ -1444,14 +1436,14 @@
     <col min="15" max="15" width="11.25" style="1" customWidth="1"/>
     <col min="16" max="16" width="10.1428571428571" style="1" customWidth="1"/>
     <col min="17" max="17" width="18.2142857142857" style="1" customWidth="1"/>
-    <col min="18" max="18" width="15.375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.6428571428571" style="1" customWidth="1"/>
-    <col min="20" max="25" width="15.0714285714286" style="1" customWidth="1"/>
-    <col min="26" max="26" width="21.0714285714286" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="1"/>
+    <col min="18" max="19" width="15.375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="15.6428571428571" style="1" customWidth="1"/>
+    <col min="21" max="26" width="15.0714285714286" style="1" customWidth="1"/>
+    <col min="27" max="27" width="21.0714285714286" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" spans="1:26">
+    <row r="1" ht="14.4" spans="1:27">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1500,51 +1492,54 @@
       <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="U1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="V1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="W1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="X1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Y1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="24" t="s">
+      <c r="Z1" s="17" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" s="19" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" ht="58" spans="1:26">
+    <row r="2" ht="58" spans="1:27">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="F2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -1552,75 +1547,79 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="17" t="s">
+      <c r="Q2" s="12" t="s">
         <v>29</v>
       </c>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="12" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" ht="14.4" spans="2:26">
+    <row r="3" ht="14.4" spans="2:27">
       <c r="B3" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
-      <c r="Q3" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="21" t="s">
+      <c r="Q3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="R3" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="9"/>
+      <c r="S3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
       <c r="Y3" s="9"/>
-      <c r="Z3" s="20" t="s">
-        <v>41</v>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="4" ht="14.4" spans="2:26">
+    <row r="4" ht="14.4" spans="2:27">
       <c r="B4" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>2</v>
@@ -1664,16 +1663,16 @@
       <c r="P4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="Q4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="21" t="s">
+      <c r="R4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="21" t="s">
+      <c r="S4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="15" t="s">
         <v>19</v>
       </c>
       <c r="U4" s="9" t="s">
@@ -1691,104 +1690,111 @@
       <c r="Y4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Z4" s="20" t="s">
+      <c r="Z4" s="9" t="s">
         <v>25</v>
       </c>
+      <c r="AA4" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" ht="14.4" spans="2:26">
+    <row r="5" ht="14.4" spans="2:27">
       <c r="B5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="9"/>
+        <v>46</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
-      <c r="Z5" s="20"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="14"/>
     </row>
-    <row r="6" ht="14.4" spans="2:26">
+    <row r="6" ht="14.4" spans="2:27">
       <c r="B6" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="R6" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="S6" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="T6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>48</v>
+      </c>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
-      <c r="Z6" s="20" t="s">
-        <v>48</v>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="7" ht="14.4" spans="2:26">
-      <c r="B7" s="11"/>
+    <row r="7" ht="14.4" spans="2:27">
+      <c r="B7" s="8"/>
       <c r="C7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>50</v>
+      <c r="D7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="F7" s="7">
         <v>0</v>
@@ -1823,36 +1829,39 @@
       <c r="P7" s="7">
         <v>-1</v>
       </c>
-      <c r="Q7" s="23" t="str">
+      <c r="Q7" s="16" t="str">
         <f>J7&amp;","&amp;K7&amp;","&amp;L7&amp;","&amp;M7&amp;","&amp;N7&amp;","&amp;O7&amp;","&amp;P7</f>
         <v>1,2,3,4,5,6,-1</v>
       </c>
-      <c r="R7" s="18">
+      <c r="R7" s="13">
         <v>1</v>
       </c>
-      <c r="S7" s="18">
+      <c r="S7" s="13">
         <v>1</v>
       </c>
-      <c r="T7" s="12">
+      <c r="T7" s="13">
+        <v>1</v>
+      </c>
+      <c r="U7" s="7">
         <v>10</v>
       </c>
-      <c r="U7" s="12">
+      <c r="V7" s="7">
         <v>20</v>
       </c>
-      <c r="V7" s="12">
+      <c r="W7" s="7">
         <v>30</v>
       </c>
-      <c r="W7" s="12">
+      <c r="X7" s="7">
         <v>40</v>
       </c>
-      <c r="X7" s="12">
+      <c r="Y7" s="7">
         <v>50</v>
       </c>
-      <c r="Y7" s="12">
+      <c r="Z7" s="7">
         <v>60</v>
       </c>
-      <c r="Z7" s="23" t="str">
-        <f>T7&amp;","&amp;U7&amp;","&amp;V7&amp;","&amp;W7&amp;","&amp;X7&amp;","&amp;Y7</f>
+      <c r="AA7" s="16" t="str">
+        <f>U7&amp;","&amp;V7&amp;","&amp;W7&amp;","&amp;X7&amp;","&amp;Y7&amp;","&amp;Z7</f>
         <v>10,20,30,40,50,60</v>
       </c>
     </row>

--- a/config/excel/Collection.xlsx
+++ b/config/excel/Collection.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -37,6 +37,9 @@
     <t>激活任务id</t>
   </si>
   <si>
+    <t>基础评分</t>
+  </si>
+  <si>
     <t>合成所需碎片数量</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
   </si>
   <si>
     <t>觉醒消耗id</t>
+  </si>
+  <si>
+    <t>激活消耗id</t>
   </si>
   <si>
     <t>放置属性id</t>
@@ -130,6 +136,9 @@
     <t>questId</t>
   </si>
   <si>
+    <t>baseScore</t>
+  </si>
+  <si>
     <t>fragmentCompose</t>
   </si>
   <si>
@@ -143,6 +152,9 @@
   </si>
   <si>
     <t>wakeupCostId</t>
+  </si>
+  <si>
+    <t>activeCostId</t>
   </si>
   <si>
     <t>exhibitionAttId</t>
@@ -183,10 +195,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -243,16 +255,38 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,15 +300,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,8 +337,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,22 +347,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,69 +398,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,13 +451,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,169 +619,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,26 +768,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,19 +789,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,6 +825,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -838,166 +865,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1120,34 +1132,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="C1:AA7" totalsRowShown="0">
-  <autoFilter ref="C1:AA7"/>
-  <tableColumns count="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="C1:AC7" totalsRowShown="0">
+  <autoFilter ref="C1:AC7"/>
+  <tableColumns count="27">
     <tableColumn id="1" name="收集品id"/>
     <tableColumn id="2" name="收集品名字"/>
     <tableColumn id="3" name="图标"/>
     <tableColumn id="4" name="品质"/>
     <tableColumn id="5" name="激活任务id"/>
-    <tableColumn id="6" name="合成所需碎片数量"/>
-    <tableColumn id="7" name="重复获得返还碎片数"/>
-    <tableColumn id="8" name="0星属性id"/>
-    <tableColumn id="9" name="1星属性id"/>
-    <tableColumn id="10" name="2星属性id"/>
-    <tableColumn id="11" name="3星属性id"/>
-    <tableColumn id="12" name="4星属性id"/>
-    <tableColumn id="13" name="5星属性id"/>
-    <tableColumn id="14" name="6星属性id"/>
-    <tableColumn id="15" name="星级对应的属性id"/>
-    <tableColumn id="16" name="觉醒属性id"/>
-    <tableColumn id="17" name="觉醒消耗id"/>
-    <tableColumn id="18" name="放置属性id"/>
-    <tableColumn id="19" name="升1星消耗碎片"/>
-    <tableColumn id="20" name="升2星消耗碎片"/>
-    <tableColumn id="21" name="升3星消耗碎片"/>
-    <tableColumn id="22" name="升4星消耗碎片"/>
-    <tableColumn id="23" name="升5星消耗碎片"/>
-    <tableColumn id="24" name="升6星消耗碎片"/>
-    <tableColumn id="25" name="升星消耗碎片数量"/>
+    <tableColumn id="6" name="基础评分"/>
+    <tableColumn id="7" name="合成所需碎片数量"/>
+    <tableColumn id="8" name="重复获得返还碎片数"/>
+    <tableColumn id="9" name="0星属性id"/>
+    <tableColumn id="10" name="1星属性id"/>
+    <tableColumn id="11" name="2星属性id"/>
+    <tableColumn id="12" name="3星属性id"/>
+    <tableColumn id="13" name="4星属性id"/>
+    <tableColumn id="14" name="5星属性id"/>
+    <tableColumn id="15" name="6星属性id"/>
+    <tableColumn id="16" name="星级对应的属性id"/>
+    <tableColumn id="17" name="觉醒属性id"/>
+    <tableColumn id="18" name="觉醒消耗id"/>
+    <tableColumn id="19" name="激活消耗id"/>
+    <tableColumn id="20" name="放置属性id"/>
+    <tableColumn id="21" name="升1星消耗碎片"/>
+    <tableColumn id="22" name="升2星消耗碎片"/>
+    <tableColumn id="23" name="升3星消耗碎片"/>
+    <tableColumn id="24" name="升4星消耗碎片"/>
+    <tableColumn id="25" name="升5星消耗碎片"/>
+    <tableColumn id="26" name="升6星消耗碎片"/>
+    <tableColumn id="27" name="升星消耗碎片数量"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1411,12 +1425,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="T17" sqref="T17"/>
+      <selection pane="bottomLeft" activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="6"/>
@@ -1426,24 +1440,24 @@
     <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.7142857142857" style="1" customWidth="1"/>
     <col min="5" max="6" width="10.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.2857142857143" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.4285714285714" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7142857142857" style="1" customWidth="1"/>
-    <col min="10" max="11" width="10.1428571428571" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.2857142857143" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.25" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.2857142857143" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.1428571428571" style="1" customWidth="1"/>
-    <col min="17" max="17" width="18.2142857142857" style="1" customWidth="1"/>
-    <col min="18" max="19" width="15.375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6428571428571" style="1" customWidth="1"/>
-    <col min="21" max="26" width="15.0714285714286" style="1" customWidth="1"/>
-    <col min="27" max="27" width="21.0714285714286" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="1"/>
+    <col min="7" max="8" width="11.2857142857143" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.4285714285714" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7142857142857" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.1428571428571" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.2857142857143" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.2857142857143" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.25" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1428571428571" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18.2142857142857" style="1" customWidth="1"/>
+    <col min="19" max="21" width="15.375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="15.6428571428571" style="1" customWidth="1"/>
+    <col min="23" max="28" width="15.0714285714286" style="1" customWidth="1"/>
+    <col min="29" max="29" width="21.0714285714286" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" spans="1:27">
+    <row r="1" ht="14.4" spans="1:29">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1492,7 +1506,7 @@
       <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="11" t="s">
@@ -1504,10 +1518,10 @@
       <c r="T1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="11" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="17" t="s">
@@ -1522,104 +1536,118 @@
       <c r="Z1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AA1" s="17" t="s">
         <v>26</v>
       </c>
+      <c r="AB1" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" ht="58" spans="1:27">
+    <row r="2" ht="58" spans="1:29">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
-      <c r="J2" s="7"/>
+      <c r="J2" s="10"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="13"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="S2" s="13"/>
       <c r="T2" s="13"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
       <c r="W2" s="18"/>
       <c r="X2" s="18"/>
       <c r="Y2" s="18"/>
       <c r="Z2" s="18"/>
-      <c r="AA2" s="12" t="s">
-        <v>30</v>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" ht="14.4" spans="2:27">
+    <row r="3" ht="14.4" spans="2:29">
       <c r="B3" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
-      <c r="Q3" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="15" t="s">
-        <v>40</v>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
-      <c r="AA3" s="14" t="s">
-        <v>43</v>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="4" ht="14.4" spans="2:27">
+    <row r="4" ht="14.4" spans="2:29">
       <c r="B4" s="8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>2</v>
@@ -1663,10 +1691,10 @@
       <c r="P4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="Q4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="R4" s="14" t="s">
         <v>17</v>
       </c>
       <c r="S4" s="15" t="s">
@@ -1675,10 +1703,10 @@
       <c r="T4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="U4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="V4" s="15" t="s">
         <v>21</v>
       </c>
       <c r="W4" s="9" t="s">
@@ -1693,20 +1721,26 @@
       <c r="Z4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AA4" s="14" t="s">
+      <c r="AA4" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="AB4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC4" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" ht="14.4" spans="2:27">
+    <row r="5" ht="14.4" spans="2:29">
       <c r="B5" s="8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -1719,82 +1753,90 @@
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="15"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="14"/>
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
-      <c r="AA5" s="14"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="14"/>
     </row>
-    <row r="6" ht="14.4" spans="2:27">
+    <row r="6" ht="14.4" spans="2:29">
       <c r="B6" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
-      <c r="Q6" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>48</v>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="T6" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
-      <c r="AA6" s="14" t="s">
-        <v>50</v>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="14" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="7" ht="14.4" spans="2:27">
+    <row r="7" ht="14.4" spans="2:29">
       <c r="B7" s="8"/>
       <c r="C7" s="7">
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F7" s="7">
         <v>0</v>
@@ -1803,38 +1845,38 @@
         <v>1</v>
       </c>
       <c r="H7" s="7">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="I7" s="7">
         <v>20</v>
       </c>
       <c r="J7" s="7">
+        <v>20</v>
+      </c>
+      <c r="K7" s="7">
         <v>1</v>
       </c>
-      <c r="K7" s="7">
+      <c r="L7" s="7">
         <v>2</v>
       </c>
-      <c r="L7" s="7">
+      <c r="M7" s="7">
         <v>3</v>
       </c>
-      <c r="M7" s="7">
+      <c r="N7" s="7">
         <v>4</v>
       </c>
-      <c r="N7" s="7">
+      <c r="O7" s="7">
         <v>5</v>
       </c>
-      <c r="O7" s="7">
+      <c r="P7" s="7">
         <v>6</v>
       </c>
-      <c r="P7" s="7">
+      <c r="Q7" s="7">
         <v>-1</v>
       </c>
-      <c r="Q7" s="16" t="str">
-        <f>J7&amp;","&amp;K7&amp;","&amp;L7&amp;","&amp;M7&amp;","&amp;N7&amp;","&amp;O7&amp;","&amp;P7</f>
+      <c r="R7" s="16" t="str">
+        <f>K7&amp;","&amp;L7&amp;","&amp;M7&amp;","&amp;N7&amp;","&amp;O7&amp;","&amp;P7&amp;","&amp;Q7</f>
         <v>1,2,3,4,5,6,-1</v>
-      </c>
-      <c r="R7" s="13">
-        <v>1</v>
       </c>
       <c r="S7" s="13">
         <v>1</v>
@@ -1842,26 +1884,32 @@
       <c r="T7" s="13">
         <v>1</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U7" s="13">
+        <v>1</v>
+      </c>
+      <c r="V7" s="13">
+        <v>1</v>
+      </c>
+      <c r="W7" s="7">
         <v>10</v>
       </c>
-      <c r="V7" s="7">
+      <c r="X7" s="7">
         <v>20</v>
       </c>
-      <c r="W7" s="7">
+      <c r="Y7" s="7">
         <v>30</v>
       </c>
-      <c r="X7" s="7">
+      <c r="Z7" s="7">
         <v>40</v>
       </c>
-      <c r="Y7" s="7">
+      <c r="AA7" s="7">
         <v>50</v>
       </c>
-      <c r="Z7" s="7">
+      <c r="AB7" s="7">
         <v>60</v>
       </c>
-      <c r="AA7" s="16" t="str">
-        <f>U7&amp;","&amp;V7&amp;","&amp;W7&amp;","&amp;X7&amp;","&amp;Y7&amp;","&amp;Z7</f>
+      <c r="AC7" s="16" t="str">
+        <f>W7&amp;","&amp;X7&amp;","&amp;Y7&amp;","&amp;Z7&amp;","&amp;AA7&amp;","&amp;AB7</f>
         <v>10,20,30,40,50,60</v>
       </c>
     </row>
